--- a/dataSet/win_server_2003_pre.xlsx
+++ b/dataSet/win_server_2003_pre.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754F6C0A-D8FD-414A-A88A-98A5F2676D2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,6 +66,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -116,7 +116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +149,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +201,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,199 +393,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CV1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:CV1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>3</v>
+        <v>1.6523456859478001</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>2.0357521430579402</v>
       </c>
       <c r="C1">
-        <v>9</v>
+        <v>2.5073497444701802</v>
       </c>
       <c r="D1">
-        <v>12</v>
+        <v>3.08702537825486</v>
       </c>
       <c r="E1">
-        <v>13</v>
+        <v>3.7989456665076302</v>
       </c>
       <c r="F1">
-        <v>14</v>
+        <v>4.6723731370205801</v>
       </c>
       <c r="G1">
-        <v>16</v>
+        <v>5.74258377362088</v>
       </c>
       <c r="H1">
-        <v>27</v>
+        <v>7.0518685260693399</v>
       </c>
       <c r="I1">
-        <v>31</v>
+        <v>8.6505802912276799</v>
       </c>
       <c r="J1">
-        <v>36</v>
+        <v>10.5981564489619</v>
       </c>
       <c r="K1">
-        <v>47</v>
+        <v>12.964002444622601</v>
       </c>
       <c r="L1">
-        <v>51</v>
+        <v>15.8280620140929</v>
       </c>
       <c r="M1">
-        <v>56</v>
+        <v>19.280824483299199</v>
       </c>
       <c r="N1">
-        <v>68</v>
+        <v>23.4224339066181</v>
       </c>
       <c r="O1">
-        <v>74</v>
+        <v>28.360481862062301</v>
       </c>
       <c r="P1">
-        <v>82</v>
+        <v>34.206011670252799</v>
       </c>
       <c r="Q1">
-        <v>89</v>
+        <v>41.067279393595598</v>
       </c>
       <c r="R1">
-        <v>95</v>
+        <v>49.040964656616303</v>
       </c>
       <c r="S1">
-        <v>104</v>
+        <v>58.200865144001902</v>
       </c>
       <c r="T1">
-        <v>126</v>
+        <v>68.584682553373099</v>
       </c>
       <c r="U1">
-        <v>129</v>
+        <v>80.180286236623701</v>
       </c>
       <c r="V1">
-        <v>134</v>
+        <v>92.913675977500603</v>
       </c>
       <c r="W1">
-        <v>136</v>
+        <v>106.641468451812</v>
       </c>
       <c r="X1">
-        <v>146</v>
+        <v>121.15072800077201</v>
       </c>
       <c r="Y1">
-        <v>152</v>
+        <v>136.16805066099701</v>
       </c>
       <c r="Z1">
-        <v>156</v>
+        <v>151.37798591454899</v>
       </c>
       <c r="AA1">
-        <v>164</v>
+        <v>166.44858098064901</v>
       </c>
       <c r="AB1">
-        <v>171</v>
+        <v>181.05985206081499</v>
       </c>
       <c r="AC1">
-        <v>172</v>
+        <v>194.93012548359701</v>
       </c>
       <c r="AD1">
-        <v>179</v>
+        <v>207.83582121309999</v>
       </c>
       <c r="AE1">
-        <v>213</v>
+        <v>219.62209852701699</v>
       </c>
       <c r="AF1">
-        <v>219</v>
+        <v>230.204091030576</v>
       </c>
       <c r="AG1">
-        <v>221</v>
+        <v>239.56040103168101</v>
       </c>
       <c r="AH1">
-        <v>228</v>
+        <v>247.72159290027199</v>
       </c>
       <c r="AI1">
-        <v>234</v>
+        <v>254.75656034593399</v>
       </c>
       <c r="AJ1">
-        <v>238</v>
+        <v>260.75911163687698</v>
       </c>
       <c r="AK1">
-        <v>239</v>
+        <v>265.83629606311598</v>
       </c>
       <c r="AL1">
-        <v>241</v>
+        <v>270.09919358741797</v>
       </c>
       <c r="AM1">
-        <v>243</v>
+        <v>273.65627815518002</v>
       </c>
       <c r="AN1">
-        <v>247</v>
+        <v>276.60908818066798</v>
       </c>
       <c r="AO1">
-        <v>250</v>
+        <v>279.04976292594603</v>
       </c>
       <c r="AP1">
-        <v>257</v>
+        <v>281.05996915939897</v>
       </c>
       <c r="AQ1">
-        <v>261</v>
+        <v>282.71078830815702</v>
       </c>
       <c r="AR1">
-        <v>272</v>
+        <v>284.06321477127699</v>
       </c>
       <c r="AS1">
-        <v>280</v>
+        <v>285.169002468484</v>
       </c>
       <c r="AT1">
-        <v>281</v>
+        <v>286.07167405485501</v>
       </c>
       <c r="AU1">
-        <v>281</v>
+        <v>286.80756968505602</v>
       </c>
       <c r="AV1">
-        <v>281</v>
+        <v>287.40685916505902</v>
       </c>
       <c r="AW1">
-        <v>281</v>
+        <v>287.89447470005598</v>
       </c>
       <c r="AX1">
-        <v>281</v>
+        <v>288.29094399983302</v>
       </c>
       <c r="AY1">
-        <v>281</v>
+        <v>288.613117977667</v>
       </c>
       <c r="AZ1">
-        <v>281</v>
+        <v>288.87479601252602</v>
       </c>
       <c r="BA1">
-        <v>281</v>
+        <v>289.08725656648897</v>
       </c>
       <c r="BB1">
-        <v>281</v>
+        <v>289.259703212803</v>
       </c>
       <c r="BC1">
-        <v>281</v>
+        <v>289.39963679297301</v>
       </c>
       <c r="BD1">
-        <v>284</v>
+        <v>289.51316413865499</v>
       </c>
       <c r="BE1">
-        <v>284</v>
+        <v>289.60525299852202</v>
       </c>
       <c r="BF1">
-        <v>284</v>
+        <v>289.67994177818298</v>
       </c>
       <c r="BG1">
-        <v>284</v>
+        <v>289.74051160193699</v>
       </c>
       <c r="BH1">
-        <v>284</v>
+        <v>289.78962713708199</v>
       </c>
       <c r="BI1">
-        <v>284</v>
+        <v>289.82945163705602</v>
       </c>
       <c r="BJ1">
-        <v>284</v>
+        <v>289.86174078243698</v>
+      </c>
+      <c r="BK1">
+        <v>289.88791913491201</v>
+      </c>
+      <c r="BL1">
+        <v>289.909142365116</v>
+      </c>
+      <c r="BM1">
+        <v>289.92634786169702</v>
+      </c>
+      <c r="BN1">
+        <v>289.94029586485499</v>
+      </c>
+      <c r="BO1">
+        <v>289.95160288132701</v>
+      </c>
+      <c r="BP1">
+        <v>289.96076881791799</v>
+      </c>
+      <c r="BQ1">
+        <v>289.96819900698</v>
+      </c>
+      <c r="BR1">
+        <v>289.97422208061698</v>
+      </c>
+      <c r="BS1">
+        <v>289.97910447283499</v>
+      </c>
+      <c r="BT1">
+        <v>289.98306218369999</v>
+      </c>
+      <c r="BU1">
+        <v>289.98627032105401</v>
+      </c>
+      <c r="BV1">
+        <v>289.988870838742</v>
+      </c>
+      <c r="BW1">
+        <v>289.99097881163698</v>
+      </c>
+      <c r="BX1">
+        <v>289.99268752374599</v>
+      </c>
+      <c r="BY1">
+        <v>289.99407259363898</v>
+      </c>
+      <c r="BZ1">
+        <v>289.99519531918298</v>
+      </c>
+      <c r="CA1">
+        <v>289.99610538920001</v>
+      </c>
+      <c r="CB1">
+        <v>289.99684308181099</v>
+      </c>
+      <c r="CC1">
+        <v>289.99744104657401</v>
+      </c>
+      <c r="CD1">
+        <v>289.997925749199</v>
+      </c>
+      <c r="CE1">
+        <v>289.99831864270101</v>
+      </c>
+      <c r="CF1">
+        <v>289.998637116765</v>
+      </c>
+      <c r="CG1">
+        <v>289.99889526733699</v>
+      </c>
+      <c r="CH1">
+        <v>289.999104520461</v>
+      </c>
+      <c r="CI1">
+        <v>289.99927413796797</v>
+      </c>
+      <c r="CJ1">
+        <v>289.99941162739299</v>
+      </c>
+      <c r="CK1">
+        <v>289.99952307425099</v>
+      </c>
+      <c r="CL1">
+        <v>289.99961341138101</v>
+      </c>
+      <c r="CM1">
+        <v>289.999686637276</v>
+      </c>
+      <c r="CN1">
+        <v>289.99974599306103</v>
+      </c>
+      <c r="CO1">
+        <v>289.99979410594301</v>
+      </c>
+      <c r="CP1">
+        <v>289.999833105498</v>
+      </c>
+      <c r="CQ1">
+        <v>289.99986471793102</v>
+      </c>
+      <c r="CR1">
+        <v>289.99989034247699</v>
+      </c>
+      <c r="CS1">
+        <v>289.99991111333298</v>
+      </c>
+      <c r="CT1">
+        <v>289.99992794986298</v>
+      </c>
+      <c r="CU1">
+        <v>289.99994159729198</v>
+      </c>
+      <c r="CV1">
+        <v>289.999952659683</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -574,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
